--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hras-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hras-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H2">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I2">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J2">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N2">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P2">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q2">
-        <v>159.254415952702</v>
+        <v>173.2377127522347</v>
       </c>
       <c r="R2">
-        <v>1433.289743574318</v>
+        <v>1559.139414770112</v>
       </c>
       <c r="S2">
-        <v>0.1680597463228244</v>
+        <v>0.1491438929665908</v>
       </c>
       <c r="T2">
-        <v>0.1680597463228244</v>
+        <v>0.1491438929665908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H3">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I3">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J3">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.50267</v>
       </c>
       <c r="O3">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P3">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q3">
-        <v>121.9706955491967</v>
+        <v>83.94351424517335</v>
       </c>
       <c r="R3">
-        <v>1097.73625994277</v>
+        <v>755.4916282065601</v>
       </c>
       <c r="S3">
-        <v>0.1287145730320243</v>
+        <v>0.07226868968033132</v>
       </c>
       <c r="T3">
-        <v>0.1287145730320243</v>
+        <v>0.07226868968033132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H4">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I4">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J4">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N4">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P4">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q4">
-        <v>80.78265376834803</v>
+        <v>100.8541375707413</v>
       </c>
       <c r="R4">
-        <v>727.0438839151321</v>
+        <v>907.6872381366719</v>
       </c>
       <c r="S4">
-        <v>0.08524920466648307</v>
+        <v>0.08682739145027436</v>
       </c>
       <c r="T4">
-        <v>0.08524920466648309</v>
+        <v>0.08682739145027436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.402677</v>
+        <v>8.535856000000001</v>
       </c>
       <c r="H5">
-        <v>37.20803100000001</v>
+        <v>25.607568</v>
       </c>
       <c r="I5">
-        <v>0.4952943482020729</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="J5">
-        <v>0.495294348202073</v>
+        <v>0.36987004643386</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N5">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O5">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P5">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q5">
-        <v>107.3361072123387</v>
+        <v>71.58625509896001</v>
       </c>
       <c r="R5">
-        <v>966.0249649110481</v>
+        <v>644.27629589064</v>
       </c>
       <c r="S5">
-        <v>0.1132708241807411</v>
+        <v>0.0616300723366635</v>
       </c>
       <c r="T5">
-        <v>0.1132708241807411</v>
+        <v>0.06163007233666349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.485456</v>
       </c>
       <c r="I6">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J6">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N6">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P6">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q6">
-        <v>66.27943443288532</v>
+        <v>104.7606308559004</v>
       </c>
       <c r="R6">
-        <v>596.514909895968</v>
+        <v>942.845677703104</v>
       </c>
       <c r="S6">
-        <v>0.06994408833547945</v>
+        <v>0.09019057148272927</v>
       </c>
       <c r="T6">
-        <v>0.06994408833547948</v>
+        <v>0.09019057148272928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.485456</v>
       </c>
       <c r="I7">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J7">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.50267</v>
       </c>
       <c r="O7">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P7">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q7">
         <v>50.76247757416888</v>
@@ -883,10 +883,10 @@
         <v>456.86229816752</v>
       </c>
       <c r="S7">
-        <v>0.05356918395510363</v>
+        <v>0.04370245601700343</v>
       </c>
       <c r="T7">
-        <v>0.05356918395510364</v>
+        <v>0.04370245601700343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.485456</v>
       </c>
       <c r="I8">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J8">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N8">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P8">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q8">
-        <v>33.620597405248</v>
+        <v>60.98870106562487</v>
       </c>
       <c r="R8">
-        <v>302.585376647232</v>
+        <v>548.898309590624</v>
       </c>
       <c r="S8">
-        <v>0.03547951268632887</v>
+        <v>0.05250642114463972</v>
       </c>
       <c r="T8">
-        <v>0.03547951268632888</v>
+        <v>0.05250642114463973</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>15.485456</v>
       </c>
       <c r="I9">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="J9">
-        <v>0.2061344991927113</v>
+        <v>0.2236685002562326</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N9">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O9">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P9">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q9">
-        <v>44.67176899116089</v>
+        <v>43.28977291165333</v>
       </c>
       <c r="R9">
-        <v>402.0459209204479</v>
+        <v>389.6079562048799</v>
       </c>
       <c r="S9">
-        <v>0.04714171421579932</v>
+        <v>0.03726905161186019</v>
       </c>
       <c r="T9">
-        <v>0.04714171421579932</v>
+        <v>0.03726905161186019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H10">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I10">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J10">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N10">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P10">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q10">
-        <v>56.54119423100799</v>
+        <v>108.2842863857307</v>
       </c>
       <c r="R10">
-        <v>508.870748079072</v>
+        <v>974.5585774715761</v>
       </c>
       <c r="S10">
-        <v>0.05966741143350709</v>
+        <v>0.093224158655193</v>
       </c>
       <c r="T10">
-        <v>0.05966741143350709</v>
+        <v>0.093224158655193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H11">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I11">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J11">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.50267</v>
       </c>
       <c r="O11">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P11">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q11">
-        <v>43.30409769978667</v>
+        <v>52.46988887315334</v>
       </c>
       <c r="R11">
-        <v>389.7368792980801</v>
+        <v>472.22899985838</v>
       </c>
       <c r="S11">
-        <v>0.04569842305865097</v>
+        <v>0.04517240135384751</v>
       </c>
       <c r="T11">
-        <v>0.04569842305865097</v>
+        <v>0.04517240135384752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H12">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I12">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J12">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N12">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P12">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q12">
-        <v>28.680823008192</v>
+        <v>63.04007448721732</v>
       </c>
       <c r="R12">
-        <v>258.127407073728</v>
+        <v>567.3606703849559</v>
       </c>
       <c r="S12">
-        <v>0.03026661339499762</v>
+        <v>0.05427249051350783</v>
       </c>
       <c r="T12">
-        <v>0.03026661339499762</v>
+        <v>0.05427249051350783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.403408</v>
+        <v>5.335438</v>
       </c>
       <c r="H13">
-        <v>13.210224</v>
+        <v>16.006314</v>
       </c>
       <c r="I13">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666972</v>
       </c>
       <c r="J13">
-        <v>0.175847770221525</v>
+        <v>0.2311916579666973</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N13">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O13">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P13">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q13">
-        <v>38.10827881655467</v>
+        <v>44.74583752733</v>
       </c>
       <c r="R13">
-        <v>342.974509348992</v>
+        <v>402.71253774597</v>
       </c>
       <c r="S13">
-        <v>0.04021532233436933</v>
+        <v>0.03852260744414891</v>
       </c>
       <c r="T13">
-        <v>0.04021532233436933</v>
+        <v>0.03852260744414891</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H14">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I14">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J14">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.840326</v>
+        <v>20.29529466666667</v>
       </c>
       <c r="N14">
-        <v>38.520978</v>
+        <v>60.885884</v>
       </c>
       <c r="O14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="P14">
-        <v>0.3393128690704511</v>
+        <v>0.4032332285476398</v>
       </c>
       <c r="Q14">
-        <v>39.459849796794</v>
+        <v>82.09190971953866</v>
       </c>
       <c r="R14">
-        <v>355.138648171146</v>
+        <v>738.8271874758481</v>
       </c>
       <c r="S14">
-        <v>0.04164162297864015</v>
+        <v>0.07067460544312672</v>
       </c>
       <c r="T14">
-        <v>0.04164162297864016</v>
+        <v>0.07067460544312672</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H15">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I15">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J15">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.50267</v>
       </c>
       <c r="O15">
-        <v>0.2598749077175229</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="P15">
-        <v>0.2598749077175228</v>
+        <v>0.1953894087318433</v>
       </c>
       <c r="Q15">
-        <v>30.22173857591</v>
+        <v>39.77819427119334</v>
       </c>
       <c r="R15">
-        <v>271.99564718319</v>
+        <v>358.00374844074</v>
       </c>
       <c r="S15">
-        <v>0.03189272767174389</v>
+        <v>0.03424586168066102</v>
       </c>
       <c r="T15">
-        <v>0.03189272767174389</v>
+        <v>0.03424586168066102</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H16">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I16">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J16">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.513324000000001</v>
+        <v>11.81535133333333</v>
       </c>
       <c r="N16">
-        <v>19.539972</v>
+        <v>35.446054</v>
       </c>
       <c r="O16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="P16">
-        <v>0.1721182665942771</v>
+        <v>0.2347510761885954</v>
       </c>
       <c r="Q16">
-        <v>20.016219737556</v>
+        <v>47.79160740906533</v>
       </c>
       <c r="R16">
-        <v>180.145977638004</v>
+        <v>430.124466681588</v>
       </c>
       <c r="S16">
-        <v>0.02112293584646748</v>
+        <v>0.04114477308017345</v>
       </c>
       <c r="T16">
-        <v>0.02112293584646749</v>
+        <v>0.04114477308017345</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.073119</v>
+        <v>4.044874</v>
       </c>
       <c r="H17">
-        <v>9.219357</v>
+        <v>12.134622</v>
       </c>
       <c r="I17">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="J17">
-        <v>0.1227233823836907</v>
+        <v>0.1752697953432102</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.654269333333334</v>
+        <v>8.386535</v>
       </c>
       <c r="N17">
-        <v>25.962808</v>
+        <v>25.159605</v>
       </c>
       <c r="O17">
-        <v>0.228693956617749</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="P17">
-        <v>0.2286939566177489</v>
+        <v>0.1666262865319216</v>
       </c>
       <c r="Q17">
-        <v>26.595599519384</v>
+        <v>33.92247737159</v>
       </c>
       <c r="R17">
-        <v>239.360395674456</v>
+        <v>305.30229634431</v>
       </c>
       <c r="S17">
-        <v>0.02806609588683918</v>
+        <v>0.029204555139249</v>
       </c>
       <c r="T17">
-        <v>0.02806609588683918</v>
+        <v>0.02920455513924899</v>
       </c>
     </row>
   </sheetData>
